--- a/src/test/resources/spreadsheet/simpleCalculate0.xlsx
+++ b/src/test/resources/spreadsheet/simpleCalculate0.xlsx
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -379,29 +379,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>A1+Hoja2!A1+[1]Hoja1!A1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
